--- a/cao2019_20211125_1202216.xlsx
+++ b/cao2019_20211125_1202216.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\My PC\GMIT\Fundamentals_of_Data_Analysis\Project\SchoolProject-FundamentalsOfDataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397E276A-7C51-4641-845F-61BD7AE4B5C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E520E-CB5D-4103-AAC9-89A69A1A9DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1DD37B07-E067-4575-B897-32DCCF7E9EFB}"/>
   </bookViews>
@@ -5442,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219D5F0E-8B04-4584-BFCA-4FFAC13FEF5E}">
   <dimension ref="A1:D931"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D164" sqref="D164"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18427,7 +18427,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D931" xr:uid="{4D237BFB-FC98-489A-8B38-3082219756D4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
